--- a/Alaska/WaterAllocation/AKwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Alaska/WaterAllocation/AKwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Alaska\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F46552-45B7-40E7-B006-9349024CA34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF1D8A6-3D51-4651-AB91-548F83B2AE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="7" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="337">
   <si>
     <t>Item</t>
   </si>
@@ -388,9 +388,6 @@
   </si>
   <si>
     <t>Name of the contact person for the organization.</t>
-  </si>
-  <si>
-    <t>OrganizationDataMappingURL</t>
   </si>
   <si>
     <t>https://github.com/WSWCWaterDataExchange/MappingStatesDataToWaDE2.0/tree/master/Alaska/WaterAllocation</t>
@@ -1030,9 +1027,6 @@
   </si>
   <si>
     <t>WaterAllocationNativeURL</t>
-  </si>
-  <si>
-    <t>https://dnr.alaska.gov/mlw/water/rights/</t>
   </si>
   <si>
     <t>https://www.waterrights.utah.gov/search/?q=01-1000</t>
@@ -1185,6 +1179,12 @@
   </si>
   <si>
     <t>PER PND ACTN</t>
+  </si>
+  <si>
+    <t>WaDEDataMappingURL</t>
+  </si>
+  <si>
+    <t>INFO_LINK</t>
   </si>
 </sst>
 </file>
@@ -2775,14 +2775,14 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C9" s="78"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="79"/>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C10" s="78"/>
     </row>
@@ -2823,7 +2823,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2964,7 +2964,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>31</v>
@@ -3223,6 +3223,41 @@
       </c>
       <c r="K11" s="90" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="90" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.3">
@@ -3236,9 +3271,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{5648D164-BA51-45DA-891B-15552863A817}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{A62F3AD7-FC2F-4A48-B010-7C086E6AA00C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3697,11 +3733,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3842,7 +3878,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="111" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>31</v>
@@ -3877,7 +3913,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="112" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>31</v>
@@ -3895,9 +3931,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B6" s="84" t="s">
         <v>73</v>
@@ -3911,8 +3947,8 @@
       <c r="E6" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="107" t="s">
-        <v>116</v>
+      <c r="F6" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>31</v>
@@ -3924,15 +3960,15 @@
         <v>31</v>
       </c>
       <c r="J6" s="68" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="83" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B7" s="84" t="s">
         <v>73</v>
@@ -3947,7 +3983,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>31</v>
@@ -3959,15 +3995,15 @@
         <v>31</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K7" s="90" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" s="84" t="s">
         <v>73</v>
@@ -3976,13 +4012,13 @@
         <v>31</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E8" s="98" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>31</v>
@@ -3994,15 +4030,15 @@
         <v>31</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K8" s="90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="83" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B9" s="84" t="s">
         <v>73</v>
@@ -4011,13 +4047,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E9" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>128</v>
+      <c r="F9" s="107" t="s">
+        <v>131</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>31</v>
@@ -4029,18 +4065,18 @@
         <v>31</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K9" s="90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="83" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="C10" s="85" t="s">
         <v>31</v>
@@ -4049,10 +4085,10 @@
         <v>31</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="107" t="s">
-        <v>132</v>
+        <v>40</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>31</v>
@@ -4064,51 +4100,19 @@
         <v>31</v>
       </c>
       <c r="J10" s="68" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="K10" s="90" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F13" s="102" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="F12" s="102" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="76"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="76"/>
@@ -4131,19 +4135,15 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="76"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="76"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
-    <sortCondition ref="A16:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:A23">
+    <sortCondition ref="A15:A23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{BAF6C277-278F-4005-9290-EE0871D1F764}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{60A2D790-33B3-4E0C-9D98-0EDFF0F4DE50}"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{60A2D790-33B3-4E0C-9D98-0EDFF0F4DE50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4195,7 +4195,7 @@
         <v>25</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>27</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -4239,12 +4239,12 @@
         <v>31</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>73</v>
@@ -4259,7 +4259,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="40"/>
@@ -4267,18 +4267,18 @@
         <v>31</v>
       </c>
       <c r="J3" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="61" t="s">
         <v>144</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>31</v>
@@ -4290,25 +4290,25 @@
         <v>31</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4" s="66" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="71"/>
       <c r="K4" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>73</v>
@@ -4332,12 +4332,12 @@
       </c>
       <c r="J5" s="71"/>
       <c r="K5" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>35</v>
@@ -4360,15 +4360,15 @@
         <v>31</v>
       </c>
       <c r="J6" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="61" t="s">
         <v>153</v>
-      </c>
-      <c r="K6" s="61" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>73</v>
@@ -4391,15 +4391,15 @@
         <v>31</v>
       </c>
       <c r="J7" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="61" t="s">
         <v>156</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>73</v>
@@ -4426,15 +4426,15 @@
         <v>31</v>
       </c>
       <c r="J8" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="61" t="s">
         <v>160</v>
-      </c>
-      <c r="K8" s="61" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>35</v>
@@ -4450,19 +4450,19 @@
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="I9" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="71" t="s">
+      <c r="K9" s="61" t="s">
         <v>164</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4471,7 +4471,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="113" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4567,7 +4567,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -4597,15 +4597,15 @@
         <v>31</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>169</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>170</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>31</v>
@@ -4615,7 +4615,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="38"/>
@@ -4623,18 +4623,18 @@
         <v>31</v>
       </c>
       <c r="J3" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="61" t="s">
         <v>172</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>45</v>
@@ -4646,28 +4646,28 @@
         <v>40</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I4" s="72" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="71"/>
       <c r="K4" s="61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>45</v>
@@ -4679,7 +4679,7 @@
         <v>40</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="42"/>
@@ -4687,18 +4687,18 @@
         <v>31</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>31</v>
@@ -4719,12 +4719,12 @@
       </c>
       <c r="J6" s="71"/>
       <c r="K6" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>35</v>
@@ -4739,7 +4739,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="20"/>
@@ -4748,15 +4748,15 @@
       </c>
       <c r="J7" s="71"/>
       <c r="K7" s="61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>31</v>
@@ -4777,12 +4777,12 @@
       </c>
       <c r="J8" s="71"/>
       <c r="K8" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>44</v>
@@ -4808,15 +4808,15 @@
         <v>4326</v>
       </c>
       <c r="K9" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>31</v>
@@ -4829,22 +4829,22 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="I10" s="72" t="s">
         <v>31</v>
       </c>
       <c r="J10" s="71"/>
       <c r="K10" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>73</v>
@@ -4868,15 +4868,15 @@
       </c>
       <c r="J11" s="71"/>
       <c r="K11" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>31</v>
@@ -4897,15 +4897,15 @@
       </c>
       <c r="J12" s="71"/>
       <c r="K12" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>31</v>
@@ -4926,15 +4926,15 @@
       </c>
       <c r="J13" s="71"/>
       <c r="K13" s="61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>31</v>
@@ -4947,10 +4947,10 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>199</v>
       </c>
       <c r="I14" s="72" t="s">
         <v>31</v>
@@ -4959,15 +4959,15 @@
         <v>40.424861522</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>31</v>
@@ -4980,10 +4980,10 @@
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I15" s="72" t="s">
         <v>31</v>
@@ -4992,12 +4992,12 @@
         <v>-112.426748144</v>
       </c>
       <c r="K15" s="61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>44</v>
@@ -5021,12 +5021,12 @@
       </c>
       <c r="J16" s="71"/>
       <c r="K16" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>44</v>
@@ -5050,12 +5050,12 @@
       </c>
       <c r="J17" s="71"/>
       <c r="K17" s="61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" s="46" t="s">
         <v>44</v>
@@ -5072,24 +5072,24 @@
       <c r="F18" s="63"/>
       <c r="G18" s="63"/>
       <c r="H18" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="I18" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="71" t="s">
+      <c r="K18" s="61" t="s">
         <v>210</v>
-      </c>
-      <c r="K18" s="61" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="46" t="s">
         <v>212</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>213</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>31</v>
@@ -5109,15 +5109,15 @@
         <v>31</v>
       </c>
       <c r="J19" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="61" t="s">
         <v>214</v>
-      </c>
-      <c r="K19" s="61" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="46" t="s">
         <v>44</v>
@@ -5133,27 +5133,27 @@
       </c>
       <c r="F20" s="58"/>
       <c r="G20" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H20" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="I20" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="71" t="s">
+      <c r="K20" s="61" t="s">
         <v>218</v>
-      </c>
-      <c r="K20" s="61" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>31</v>
@@ -5165,25 +5165,25 @@
         <v>31</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I21" s="72" t="s">
         <v>31</v>
       </c>
       <c r="J21" s="71"/>
       <c r="K21" s="61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="46" t="s">
         <v>35</v>
@@ -5198,7 +5198,7 @@
         <v>40</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
@@ -5206,18 +5206,18 @@
         <v>31</v>
       </c>
       <c r="J22" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="61" t="s">
         <v>223</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>31</v>
@@ -5229,7 +5229,7 @@
         <v>40</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="72" t="s">
@@ -5239,12 +5239,12 @@
         <v>5</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>73</v>
@@ -5268,12 +5268,12 @@
       </c>
       <c r="J24" s="71"/>
       <c r="K24" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="5"/>
     </row>
@@ -5307,9 +5307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H14:H15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>30</v>
@@ -5389,7 +5389,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5459,12 +5459,12 @@
         <v>31</v>
       </c>
       <c r="K4" s="61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>30</v>
@@ -5494,7 +5494,7 @@
         <v>31</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
@@ -5534,7 +5534,7 @@
     </row>
     <row r="7" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>73</v>
@@ -5549,7 +5549,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G7" s="52"/>
       <c r="H7" s="56"/>
@@ -5557,10 +5557,10 @@
         <v>31</v>
       </c>
       <c r="J7" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="K7" s="61" t="s">
         <v>236</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -5568,7 +5568,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>31</v>
@@ -5599,7 +5599,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>31</v>
@@ -5627,10 +5627,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>45</v>
@@ -5642,7 +5642,7 @@
         <v>31</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
@@ -5650,10 +5650,10 @@
         <v>31</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K10" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>31</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="12" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>30</v>
@@ -5713,15 +5713,15 @@
       </c>
       <c r="J12" s="71"/>
       <c r="K12" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>31</v>
@@ -5742,15 +5742,15 @@
       </c>
       <c r="J13" s="71"/>
       <c r="K13" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>31</v>
@@ -5771,12 +5771,12 @@
       </c>
       <c r="J14" s="71"/>
       <c r="K14" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="46" t="s">
         <v>73</v>
@@ -5799,15 +5799,15 @@
         <v>31</v>
       </c>
       <c r="J15" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="K15" s="61" t="s">
         <v>246</v>
-      </c>
-      <c r="K15" s="61" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" s="46" t="s">
         <v>35</v>
@@ -5831,12 +5831,12 @@
       </c>
       <c r="J16" s="71"/>
       <c r="K16" s="61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>73</v>
@@ -5860,15 +5860,15 @@
       </c>
       <c r="J17" s="71"/>
       <c r="K17" s="61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>31</v>
@@ -5889,12 +5889,12 @@
       </c>
       <c r="J18" s="71"/>
       <c r="K18" s="61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" s="46" t="s">
         <v>30</v>
@@ -5918,15 +5918,15 @@
       </c>
       <c r="J19" s="71"/>
       <c r="K19" s="61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>31</v>
@@ -5949,12 +5949,12 @@
         <v>2.5</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A21" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B21" s="46" t="s">
         <v>73</v>
@@ -5970,24 +5970,24 @@
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H21" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="I21" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="71" t="s">
+      <c r="K21" s="61" t="s">
         <v>260</v>
-      </c>
-      <c r="K21" s="61" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="32" customFormat="1" ht="48" x14ac:dyDescent="0.3">
       <c r="A22" s="55" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" s="46" t="s">
         <v>73</v>
@@ -6003,27 +6003,27 @@
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H22" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I22" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="71" t="s">
+      <c r="K22" s="61" t="s">
         <v>264</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>45</v>
@@ -6036,24 +6036,24 @@
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="I23" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="71" t="s">
+      <c r="K23" s="61" t="s">
         <v>268</v>
-      </c>
-      <c r="K23" s="61" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" s="46" t="s">
         <v>30</v>
@@ -6076,18 +6076,18 @@
         <v>31</v>
       </c>
       <c r="J24" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="61" t="s">
         <v>271</v>
-      </c>
-      <c r="K24" s="61" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" s="46" t="s">
         <v>273</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>274</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>31</v>
@@ -6108,15 +6108,15 @@
       </c>
       <c r="J25" s="71"/>
       <c r="K25" s="61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>31</v>
@@ -6137,12 +6137,12 @@
       </c>
       <c r="J26" s="71"/>
       <c r="K26" s="61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="48" x14ac:dyDescent="0.3">
       <c r="A27" s="55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>73</v>
@@ -6158,25 +6158,25 @@
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I27" s="62" t="s">
         <v>31</v>
       </c>
       <c r="J27" s="71"/>
       <c r="K27" s="61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>31</v>
@@ -6199,12 +6199,12 @@
         <v>500</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>73</v>
@@ -6227,15 +6227,15 @@
         <v>31</v>
       </c>
       <c r="J29" s="71" t="s">
+        <v>283</v>
+      </c>
+      <c r="K29" s="61" t="s">
         <v>284</v>
-      </c>
-      <c r="K29" s="61" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>73</v>
@@ -6259,12 +6259,12 @@
       </c>
       <c r="J30" s="71"/>
       <c r="K30" s="61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>35</v>
@@ -6288,12 +6288,12 @@
       </c>
       <c r="J31" s="71"/>
       <c r="K31" s="61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>35</v>
@@ -6317,12 +6317,12 @@
       </c>
       <c r="J32" s="71"/>
       <c r="K32" s="61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>30</v>
@@ -6345,15 +6345,15 @@
         <v>31</v>
       </c>
       <c r="J33" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" s="61" t="s">
         <v>293</v>
-      </c>
-      <c r="K33" s="61" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>35</v>
@@ -6377,15 +6377,15 @@
       </c>
       <c r="J34" s="71"/>
       <c r="K34" s="61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" s="46" t="s">
         <v>297</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>298</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>31</v>
@@ -6408,15 +6408,15 @@
         <v>0</v>
       </c>
       <c r="K35" s="61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" s="47" t="s">
         <v>31</v>
@@ -6437,15 +6437,15 @@
       </c>
       <c r="J36" s="71"/>
       <c r="K36" s="61" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="47" t="s">
         <v>31</v>
@@ -6466,12 +6466,12 @@
       </c>
       <c r="J37" s="71"/>
       <c r="K37" s="61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>35</v>
@@ -6495,12 +6495,12 @@
       </c>
       <c r="J38" s="71"/>
       <c r="K38" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>73</v>
@@ -6524,12 +6524,12 @@
       </c>
       <c r="J39" s="71"/>
       <c r="K39" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>73</v>
@@ -6544,27 +6544,27 @@
         <v>40</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G40" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H40" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I40" s="62" t="s">
         <v>31</v>
       </c>
       <c r="J40" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="K40" s="61" t="s">
         <v>309</v>
-      </c>
-      <c r="K40" s="61" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B41" s="46" t="s">
         <v>30</v>
@@ -6588,12 +6588,12 @@
       </c>
       <c r="J41" s="71"/>
       <c r="K41" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B42" s="46" t="s">
         <v>44</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B43" s="46" t="s">
         <v>35</v>
@@ -6635,27 +6635,27 @@
         <v>40</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H43" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I43" s="62" t="s">
         <v>31</v>
       </c>
       <c r="J43" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="K43" s="61" t="s">
         <v>315</v>
-      </c>
-      <c r="K43" s="61" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" s="46" t="s">
         <v>35</v>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="J44" s="71"/>
       <c r="K44" s="61" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="48" x14ac:dyDescent="0.3">
+      <c r="A45" s="55" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="55" t="s">
-        <v>319</v>
       </c>
       <c r="B45" s="46" t="s">
         <v>73</v>
@@ -6698,19 +6698,21 @@
       <c r="E45" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="106" t="s">
+      <c r="F45" s="106"/>
+      <c r="G45" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="I45" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="K45" s="61" t="s">
         <v>320</v>
-      </c>
-      <c r="G45" s="52"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="K45" s="61" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -6721,7 +6723,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="116" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
@@ -6735,7 +6737,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="116" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
@@ -6749,11 +6751,8 @@
     <sortCondition ref="A8:A11"/>
   </sortState>
   <phoneticPr fontId="23" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F45" r:id="rId1" xr:uid="{D561CA89-7976-48D4-A997-D93C8AAC1377}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6761,7 +6760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -6772,37 +6771,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B1" s="50"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="118" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B3" s="50"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="118" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B4" s="50"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="118" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B5" s="50"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="118" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B6" s="50"/>
     </row>
